--- a/data/trans_dic/P36B13_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Clase-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04195983272751146</v>
+        <v>0.04046168764793139</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03318967845017617</v>
+        <v>0.03235534642577172</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02809548153597955</v>
+        <v>0.02731814940000876</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01384022197368692</v>
+        <v>0.01381741197809122</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04049749083345005</v>
+        <v>0.03997318532742384</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02812934555905284</v>
+        <v>0.02841695739594696</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08811082524140657</v>
+        <v>0.08847057956085341</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07431129833605371</v>
+        <v>0.07549785097625523</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07233768554022897</v>
+        <v>0.06983385653371155</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03919266211956972</v>
+        <v>0.04011802454226768</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07337984957424488</v>
+        <v>0.07130709946547145</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05338917611325027</v>
+        <v>0.05534091700337739</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06647341294003656</v>
+        <v>0.06611626042767292</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03321779891658075</v>
+        <v>0.03519671369429219</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05748427576903078</v>
+        <v>0.0565608087982479</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02927671152534072</v>
+        <v>0.03055247835514496</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06816996102955247</v>
+        <v>0.06804909507870689</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03775617230744551</v>
+        <v>0.03689923211669406</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1260752998857343</v>
+        <v>0.1252141214298642</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09548443776781138</v>
+        <v>0.08802126302498942</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1149801786295679</v>
+        <v>0.1127060390428373</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07523716592363534</v>
+        <v>0.07821906655289237</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1117604694194451</v>
+        <v>0.1105746154495739</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07554805128950777</v>
+        <v>0.07513867030112016</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08257752962487698</v>
+        <v>0.08012941617998627</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04758915805508359</v>
+        <v>0.0486238600130666</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05427945045089018</v>
+        <v>0.05259758714389841</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.008389466436774996</v>
+        <v>0.008639595580726024</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0828611692761341</v>
+        <v>0.0806180401079301</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03899288352440618</v>
+        <v>0.04010970010304186</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1367692851658031</v>
+        <v>0.1373017135493499</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1063302424195531</v>
+        <v>0.1061579714032675</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1447165030030814</v>
+        <v>0.1432801289405904</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04826125953702232</v>
+        <v>0.04643566059098207</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1296454449767092</v>
+        <v>0.1269795991713624</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08314980239617818</v>
+        <v>0.08104627856592478</v>
       </c>
     </row>
     <row r="13">
@@ -864,13 +864,13 @@
         <v>0.1125296724722378</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.04453741321322487</v>
+        <v>0.04453741321322488</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1193925083750336</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.06918493122459715</v>
+        <v>0.06918493122459717</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.105557877755237</v>
+        <v>0.1070636969464303</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06958537740734223</v>
+        <v>0.07054053007360803</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09237271364906532</v>
+        <v>0.09219992890021791</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03214430583931805</v>
+        <v>0.03280178818824039</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1053966404814661</v>
+        <v>0.1065528778677276</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05696042583409291</v>
+        <v>0.05725587769281491</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1434393970890144</v>
+        <v>0.1456279383258351</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1094904500685863</v>
+        <v>0.1114761267172776</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1361120041300511</v>
+        <v>0.1356279296206616</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06064554326202302</v>
+        <v>0.06123832747118654</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1351153362803508</v>
+        <v>0.1335846419703467</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08293989621200795</v>
+        <v>0.0830815373077053</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         <v>0.1085030646802758</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.04715690556729824</v>
+        <v>0.04715690556729822</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1232878758404853</v>
+        <v>0.1230953883395291</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04736159221336012</v>
+        <v>0.05010096253707121</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05518954928368912</v>
+        <v>0.05485250618745365</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02190156267491651</v>
+        <v>0.02203256928915919</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.09052581046839349</v>
+        <v>0.09282764653534482</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.036611985687952</v>
+        <v>0.0366803548840982</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1829668349428998</v>
+        <v>0.1818827336124079</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0948482260137985</v>
+        <v>0.09642519970335423</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09391251179672329</v>
+        <v>0.0930136998189595</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04351482314178527</v>
+        <v>0.04332253358045895</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.125193551747418</v>
+        <v>0.1280104760605326</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06066658656099887</v>
+        <v>0.06143845653419724</v>
       </c>
     </row>
     <row r="19">
@@ -1034,7 +1034,7 @@
         <v>0.0999483038966998</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.06090122630319678</v>
+        <v>0.06090122630319676</v>
       </c>
     </row>
     <row r="20">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.189321649478211</v>
+        <v>0.1846940528715173</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06344753003793489</v>
+        <v>0.06374788879100463</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0498514477602951</v>
+        <v>0.05131991208187436</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03177213456389837</v>
+        <v>0.03166559241270606</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.08549154117518246</v>
+        <v>0.08380206756249668</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04398833238824555</v>
+        <v>0.04431914365934595</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2866230453781216</v>
+        <v>0.2861038250020996</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1889305891880986</v>
+        <v>0.1996596145177923</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.07988850258837216</v>
+        <v>0.08232059164582343</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06619578072716406</v>
+        <v>0.06621559860654823</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1191788160659494</v>
+        <v>0.1178737815183253</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.08215682525922231</v>
+        <v>0.08428591382236666</v>
       </c>
     </row>
     <row r="22">
@@ -1116,7 +1116,7 @@
         <v>0.1009854807866918</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.05594575019259385</v>
+        <v>0.05594575019259386</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.113436611172968</v>
+        <v>0.1135018405258142</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06375445789135341</v>
+        <v>0.06370493463118765</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06935799961624416</v>
+        <v>0.07048587601316719</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03250987162719568</v>
+        <v>0.03216341916059776</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.09403749890117993</v>
+        <v>0.09375174041569481</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04991199601669816</v>
+        <v>0.04984546948146896</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1365012087267637</v>
+        <v>0.1362607834538343</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08586003960285007</v>
+        <v>0.08592730892171016</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.08767564470887673</v>
+        <v>0.08760624177424148</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04598599249661078</v>
+        <v>0.04468971609948132</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1079592545508164</v>
+        <v>0.1086766015645529</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.06283014833003896</v>
+        <v>0.06262991042272846</v>
       </c>
     </row>
     <row r="25">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>17923</v>
+        <v>17283</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>18275</v>
+        <v>17815</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9685</v>
+        <v>9417</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6738</v>
+        <v>6727</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>31259</v>
+        <v>30854</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>29183</v>
+        <v>29481</v>
       </c>
     </row>
     <row r="7">
@@ -1383,22 +1383,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>37636</v>
+        <v>37790</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>40917</v>
+        <v>41570</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24937</v>
+        <v>24074</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>19080</v>
+        <v>19531</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>56640</v>
+        <v>55040</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>55389</v>
+        <v>57414</v>
       </c>
     </row>
     <row r="8">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>24811</v>
+        <v>24678</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>16051</v>
+        <v>17007</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21211</v>
+        <v>20870</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12337</v>
+        <v>12874</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>50598</v>
+        <v>50509</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>34154</v>
+        <v>33379</v>
       </c>
     </row>
     <row r="11">
@@ -1491,22 +1491,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>47058</v>
+        <v>46736</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>46139</v>
+        <v>42533</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>42426</v>
+        <v>41587</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>31703</v>
+        <v>32960</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>82953</v>
+        <v>82073</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>68340</v>
+        <v>67970</v>
       </c>
     </row>
     <row r="12">
@@ -1573,22 +1573,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>42698</v>
+        <v>41432</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>22317</v>
+        <v>22802</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8969</v>
+        <v>8691</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1573</v>
+        <v>1620</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>56537</v>
+        <v>55006</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>25597</v>
+        <v>26330</v>
       </c>
     </row>
     <row r="15">
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>70719</v>
+        <v>70994</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>49863</v>
+        <v>49782</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23913</v>
+        <v>23676</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9049</v>
+        <v>8707</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>88458</v>
+        <v>86639</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>54583</v>
+        <v>53202</v>
       </c>
     </row>
     <row r="16">
@@ -1681,22 +1681,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>120912</v>
+        <v>122637</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>78760</v>
+        <v>79841</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>76027</v>
+        <v>75885</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>27596</v>
+        <v>28160</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>207474</v>
+        <v>209750</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>113371</v>
+        <v>113959</v>
       </c>
     </row>
     <row r="19">
@@ -1707,22 +1707,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>164304</v>
+        <v>166811</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>123926</v>
+        <v>126173</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>112026</v>
+        <v>111628</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>52064</v>
+        <v>52573</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>265975</v>
+        <v>262962</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>165079</v>
+        <v>165361</v>
       </c>
     </row>
     <row r="20">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>75831</v>
+        <v>75712</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>26833</v>
+        <v>28385</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>40619</v>
+        <v>40371</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>18171</v>
+        <v>18279</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>122306</v>
+        <v>125416</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>51118</v>
+        <v>51213</v>
       </c>
     </row>
     <row r="23">
@@ -1815,22 +1815,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>112537</v>
+        <v>111871</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>53736</v>
+        <v>54629</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>69118</v>
+        <v>68457</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>36102</v>
+        <v>35943</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>169144</v>
+        <v>172950</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>84703</v>
+        <v>85781</v>
       </c>
     </row>
     <row r="24">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>54363</v>
+        <v>53034</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>15052</v>
+        <v>15123</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>53351</v>
+        <v>54923</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>26759</v>
+        <v>26670</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>116042</v>
+        <v>113749</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>47483</v>
+        <v>47840</v>
       </c>
     </row>
     <row r="27">
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>82302</v>
+        <v>82153</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>44820</v>
+        <v>47365</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>85497</v>
+        <v>88100</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>55752</v>
+        <v>55768</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>161767</v>
+        <v>159996</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>88684</v>
+        <v>90983</v>
       </c>
     </row>
     <row r="28">
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>381730</v>
+        <v>381949</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>219213</v>
+        <v>219043</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>243322</v>
+        <v>247278</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>117884</v>
+        <v>116628</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>646351</v>
+        <v>644387</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>352603</v>
+        <v>352133</v>
       </c>
     </row>
     <row r="31">
@@ -2031,22 +2031,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>459345</v>
+        <v>458536</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>295221</v>
+        <v>295452</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>307584</v>
+        <v>307340</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>166749</v>
+        <v>162049</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>742040</v>
+        <v>746971</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>443863</v>
+        <v>442448</v>
       </c>
     </row>
     <row r="32">
